--- a/pref.xlsx
+++ b/pref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onoderakyoko/nationality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5CC59A-A0E6-5A49-BB3E-E5B658F3F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E272C8-2059-164E-B39F-EC03EFA0F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="1060" windowWidth="18340" windowHeight="16940" xr2:uid="{2564C028-1068-984B-9B1F-ABFAD526A1E0}"/>
+    <workbookView xWindow="8940" yWindow="8560" windowWidth="28800" windowHeight="17500" xr2:uid="{2564C028-1068-984B-9B1F-ABFAD526A1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>都道府県名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県庁所在地</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -64,18 +60,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仙台</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">センダイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秋田県</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秋田</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -101,11 +86,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://sites.google.com/view/wtwsendai/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://npo-socialeq.com/drone/</t>
+    <t>https://twitter.com/WTWsendai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://twitter.com/WTWAKITA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名物</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">メイブツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛タン</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きりたんぽ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -180,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +209,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3956B315-6210-194F-9207-D3041634C99D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -520,38 +541,41 @@
     <col min="4" max="4" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>38.268889999999999</v>
@@ -559,25 +583,31 @@
       <c r="F2">
         <v>140.87194</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>39.718609999999998</v>
       </c>
       <c r="F3">
         <v>140.10249999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
